--- a/LivInParis - DELPIERRE DROUIN DELEY/MetroParis.xlsx
+++ b/LivInParis - DELPIERRE DROUIN DELEY/MetroParis.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warfy\Desktop\ESILV\A2\S2\Info\Pb scientifique info\GitHub\LivInParis\LivInParis - DELPIERRE DROUIN DELEY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be4db2cf85296fce/Bureau/Pb scientifique info/LivInParis/LivInParis - DELPIERRE DROUIN DELEY/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464890DF-D372-4876-B462-9657432EA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{464890DF-D372-4876-B462-9657432EA7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDFD036B-DBE9-448D-8084-91C7C62D57ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6A7959BE-A0B4-4EB6-8342-15F77AC26B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Noeuds" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="776">
   <si>
     <t>Libelle Line</t>
   </si>
@@ -2345,6 +2345,30 @@
   </si>
   <si>
     <t>7.BIS</t>
+  </si>
+  <si>
+    <t>2.28258384736154</t>
+  </si>
+  <si>
+    <t>2.28943541854221</t>
+  </si>
+  <si>
+    <t>2.29581177523576</t>
+  </si>
+  <si>
+    <t>2.30075978497891</t>
+  </si>
+  <si>
+    <t>48.8781626526965</t>
+  </si>
+  <si>
+    <t>48.8756673756516</t>
+  </si>
+  <si>
+    <t>48.874994575223</t>
+  </si>
+  <si>
+    <t>48.872037763641</t>
   </si>
 </sst>
 </file>
@@ -2392,13 +2416,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2414,6 +2439,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2716,7 +2745,7 @@
   <dimension ref="A1:G333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2735,10 +2764,10 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
@@ -2758,11 +2787,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>2.2825838473615399</v>
-      </c>
-      <c r="E2">
-        <v>48.878162652696503</v>
+      <c r="D2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E2" t="s">
+        <v>772</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2781,11 +2810,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>2.2894354185422099</v>
-      </c>
-      <c r="E3">
-        <v>48.875667375651602</v>
+      <c r="D3" t="s">
+        <v>769</v>
+      </c>
+      <c r="E3" t="s">
+        <v>773</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -2804,11 +2833,11 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>2.2958117752357601</v>
-      </c>
-      <c r="E4">
-        <v>48.874994575222999</v>
+      <c r="D4" t="s">
+        <v>770</v>
+      </c>
+      <c r="E4" t="s">
+        <v>774</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
@@ -2827,11 +2856,11 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>2.3007597849789101</v>
-      </c>
-      <c r="E5">
-        <v>48.872037763641003</v>
+      <c r="D5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E5" t="s">
+        <v>775</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -10526,7 +10555,7 @@
       </c>
       <c r="F6" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -10549,7 +10578,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" ref="F7:F8" ca="1" si="2">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -10572,7 +10601,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -10614,7 +10643,7 @@
       </c>
       <c r="F10" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -10656,7 +10685,7 @@
       </c>
       <c r="F12" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -10679,7 +10708,7 @@
       </c>
       <c r="F13" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -10721,7 +10750,7 @@
       </c>
       <c r="F15" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -10744,7 +10773,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" ref="F16:F18" ca="1" si="3">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -10790,7 +10819,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -10993,7 +11022,7 @@
       </c>
       <c r="F29" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -11031,7 +11060,7 @@
       </c>
       <c r="F31" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -11072,7 +11101,7 @@
       </c>
       <c r="F33" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -11137,7 +11166,7 @@
       </c>
       <c r="F36" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -11240,7 +11269,7 @@
       </c>
       <c r="F41" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -11314,7 +11343,7 @@
       </c>
       <c r="F45" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" s="3">
         <v>2</v>
@@ -11353,7 +11382,7 @@
       </c>
       <c r="E47">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -11371,7 +11400,7 @@
       </c>
       <c r="E48">
         <f t="shared" ref="E48:E66" ca="1" si="6">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -11389,7 +11418,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -11407,7 +11436,7 @@
       </c>
       <c r="E50" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F50" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -11429,7 +11458,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -11447,11 +11476,11 @@
       </c>
       <c r="E52" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F52" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -11469,11 +11498,11 @@
       </c>
       <c r="E53" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F53" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -11495,7 +11524,7 @@
       </c>
       <c r="F54" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11531,7 +11560,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -11549,7 +11578,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -11589,7 +11618,7 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -11611,7 +11640,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -11651,7 +11680,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -11669,7 +11698,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -11687,11 +11716,11 @@
       </c>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F64" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -11709,7 +11738,7 @@
       </c>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F65" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -11751,7 +11780,7 @@
       </c>
       <c r="F67" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>766</v>
@@ -11790,7 +11819,7 @@
       </c>
       <c r="E69">
         <f t="shared" ref="E69:E70" ca="1" si="7">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -11806,11 +11835,11 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H70" s="3" t="s">
         <v>766</v>
@@ -11849,7 +11878,7 @@
       </c>
       <c r="E72">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -11867,7 +11896,7 @@
       </c>
       <c r="E73" s="2">
         <f t="shared" ref="E73:E96" ca="1" si="8">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -11889,7 +11918,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -11907,7 +11936,7 @@
       </c>
       <c r="E75" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -11929,11 +11958,11 @@
       </c>
       <c r="E76" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -11951,11 +11980,11 @@
       </c>
       <c r="E77" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F77" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -11973,7 +12002,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -11991,11 +12020,11 @@
       </c>
       <c r="E79" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -12035,7 +12064,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -12053,7 +12082,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -12071,11 +12100,11 @@
       </c>
       <c r="E83" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F83" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -12093,7 +12122,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -12111,7 +12140,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -12129,11 +12158,11 @@
       </c>
       <c r="E86" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F86" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -12151,7 +12180,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -12169,7 +12198,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -12187,7 +12216,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -12205,7 +12234,7 @@
       </c>
       <c r="E90" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -12245,11 +12274,11 @@
       </c>
       <c r="E92" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F92" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -12267,7 +12296,7 @@
       </c>
       <c r="E93" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
@@ -12289,7 +12318,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -12307,7 +12336,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -12323,7 +12352,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="3">
         <v>4</v>
@@ -12380,7 +12409,7 @@
       </c>
       <c r="E99">
         <f t="shared" ref="E99:E114" ca="1" si="9">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -12398,11 +12427,11 @@
       </c>
       <c r="E100" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" s="2">
         <f ca="1">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -12420,7 +12449,7 @@
       </c>
       <c r="E101" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" s="2">
         <f t="shared" ref="F101:F106" ca="1" si="10">RANDBETWEEN(1,3)</f>
@@ -12442,7 +12471,7 @@
       </c>
       <c r="E102" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F102" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -12464,11 +12493,11 @@
       </c>
       <c r="E103" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F103" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
@@ -12504,11 +12533,11 @@
       </c>
       <c r="E105" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F105" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -12526,11 +12555,11 @@
       </c>
       <c r="E106" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F106" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
@@ -12548,7 +12577,7 @@
       </c>
       <c r="E107">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
@@ -12588,7 +12617,7 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" ref="F109" ca="1" si="11">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
@@ -12606,7 +12635,7 @@
       </c>
       <c r="E110">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
@@ -12624,11 +12653,11 @@
       </c>
       <c r="E111" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F111" s="2">
         <f t="shared" ref="F111" ca="1" si="12">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
@@ -12646,7 +12675,7 @@
       </c>
       <c r="E112">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
@@ -12664,7 +12693,7 @@
       </c>
       <c r="E113">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
@@ -12680,11 +12709,11 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F114" s="2">
         <f t="shared" ref="F114:F115" ca="1" si="13">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H114" s="3">
         <v>5</v>
@@ -12706,7 +12735,7 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H115" s="3">
         <v>6</v>
@@ -12727,7 +12756,7 @@
       </c>
       <c r="E116">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
@@ -12745,7 +12774,7 @@
       </c>
       <c r="E117">
         <f t="shared" ref="E117:E142" ca="1" si="14">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -12763,11 +12792,11 @@
       </c>
       <c r="E118" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" s="2">
         <f t="shared" ref="F118" ca="1" si="15">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -12785,7 +12814,7 @@
       </c>
       <c r="E119">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
@@ -12839,11 +12868,11 @@
       </c>
       <c r="E122" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F122" s="2">
         <f t="shared" ref="F122" ca="1" si="16">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
@@ -12879,7 +12908,7 @@
       </c>
       <c r="E124">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
@@ -12897,11 +12926,11 @@
       </c>
       <c r="E125" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" ref="F125:F126" ca="1" si="17">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
@@ -12919,7 +12948,7 @@
       </c>
       <c r="E126" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F126" s="2">
         <f t="shared" ca="1" si="17"/>
@@ -12941,7 +12970,7 @@
       </c>
       <c r="E127">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
@@ -12959,7 +12988,7 @@
       </c>
       <c r="E128" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F128" s="2">
         <f t="shared" ref="F128:F129" ca="1" si="18">RANDBETWEEN(1,3)</f>
@@ -12981,11 +13010,11 @@
       </c>
       <c r="E129" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F129" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -13003,7 +13032,7 @@
       </c>
       <c r="E130">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
@@ -13021,7 +13050,7 @@
       </c>
       <c r="E131">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
@@ -13039,7 +13068,7 @@
       </c>
       <c r="E132">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
@@ -13057,11 +13086,11 @@
       </c>
       <c r="E133" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" ref="F133" ca="1" si="19">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -13079,7 +13108,7 @@
       </c>
       <c r="E134">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
@@ -13097,7 +13126,7 @@
       </c>
       <c r="E135">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
@@ -13115,7 +13144,7 @@
       </c>
       <c r="E136">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
@@ -13133,7 +13162,7 @@
       </c>
       <c r="E137" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F137" s="2">
         <f t="shared" ref="F137" ca="1" si="20">RANDBETWEEN(1,3)</f>
@@ -13155,7 +13184,7 @@
       </c>
       <c r="E138">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
@@ -13173,11 +13202,11 @@
       </c>
       <c r="E139" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" s="2">
         <f t="shared" ref="F139" ca="1" si="21">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
@@ -13213,7 +13242,7 @@
       </c>
       <c r="E141">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
@@ -13229,7 +13258,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F142" s="2">
         <f t="shared" ref="F142" ca="1" si="22">RANDBETWEEN(1,3)</f>
@@ -13272,7 +13301,7 @@
       </c>
       <c r="E144">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -13290,7 +13319,7 @@
       </c>
       <c r="E145">
         <f t="shared" ref="E145:E172" ca="1" si="23">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -13330,7 +13359,7 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" ref="F147:F148" ca="1" si="24">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -13348,11 +13377,11 @@
       </c>
       <c r="E148" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F148" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
@@ -13370,7 +13399,7 @@
       </c>
       <c r="E149">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -13388,7 +13417,7 @@
       </c>
       <c r="E150" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F150" s="2">
         <f t="shared" ref="F150" ca="1" si="25">RANDBETWEEN(1,3)</f>
@@ -13410,7 +13439,7 @@
       </c>
       <c r="E151">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -13428,7 +13457,7 @@
       </c>
       <c r="E152">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -13446,7 +13475,7 @@
       </c>
       <c r="E153">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -13464,11 +13493,11 @@
       </c>
       <c r="E154" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F154" s="2">
         <f t="shared" ref="F154:F159" ca="1" si="26">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -13490,7 +13519,7 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -13508,11 +13537,11 @@
       </c>
       <c r="E156" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F156" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -13530,11 +13559,11 @@
       </c>
       <c r="E157" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F157" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -13552,7 +13581,7 @@
       </c>
       <c r="E158">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -13570,7 +13599,7 @@
       </c>
       <c r="E159" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F159" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -13592,7 +13621,7 @@
       </c>
       <c r="E160">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
@@ -13610,7 +13639,7 @@
       </c>
       <c r="E161">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
@@ -13650,7 +13679,7 @@
       </c>
       <c r="E163">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
@@ -13668,7 +13697,7 @@
       </c>
       <c r="E164">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
@@ -13686,7 +13715,7 @@
       </c>
       <c r="E165">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
@@ -13704,11 +13733,11 @@
       </c>
       <c r="E166" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F166" s="2">
         <f t="shared" ref="F166" ca="1" si="28">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
@@ -13726,7 +13755,7 @@
       </c>
       <c r="E167">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
@@ -13744,7 +13773,7 @@
       </c>
       <c r="E168" s="2">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F168" s="2">
         <f t="shared" ref="F168" ca="1" si="29">RANDBETWEEN(1,3)</f>
@@ -13766,7 +13795,7 @@
       </c>
       <c r="E169">
         <f t="shared" ca="1" si="23"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -13784,7 +13813,7 @@
       </c>
       <c r="E170">
         <f t="shared" ca="1" si="23"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -13800,7 +13829,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -13816,11 +13845,11 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1">
         <f t="shared" ca="1" si="23"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F172" s="2">
         <f t="shared" ref="F172:F174" ca="1" si="30">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" s="3">
         <v>7</v>
@@ -13863,11 +13892,11 @@
       </c>
       <c r="E174" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F174" s="2">
         <f t="shared" ca="1" si="30"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
@@ -13885,7 +13914,7 @@
       </c>
       <c r="E175">
         <f t="shared" ref="E175:E181" ca="1" si="31">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
@@ -13903,7 +13932,7 @@
       </c>
       <c r="E176">
         <f t="shared" ca="1" si="31"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
@@ -13939,11 +13968,11 @@
       </c>
       <c r="E178" s="2">
         <f t="shared" ca="1" si="31"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F178" s="2">
         <f t="shared" ref="F178" ca="1" si="32">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
@@ -13961,7 +13990,7 @@
       </c>
       <c r="E179">
         <f t="shared" ca="1" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
@@ -13979,7 +14008,7 @@
       </c>
       <c r="E180">
         <f t="shared" ca="1" si="31"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
@@ -13995,7 +14024,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1">
         <f t="shared" ca="1" si="31"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H181" s="3" t="s">
         <v>767</v>
@@ -14070,7 +14099,7 @@
       </c>
       <c r="E185">
         <f t="shared" ca="1" si="33"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
@@ -14088,7 +14117,7 @@
       </c>
       <c r="E186">
         <f t="shared" ca="1" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
@@ -14106,7 +14135,7 @@
       </c>
       <c r="E187" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F187" s="2">
         <f t="shared" ref="F187" ca="1" si="34">RANDBETWEEN(1,3)</f>
@@ -14168,7 +14197,7 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" ref="F190:F198" ca="1" si="35">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
@@ -14186,7 +14215,7 @@
       </c>
       <c r="E191" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F191" s="2">
         <f t="shared" ca="1" si="35"/>
@@ -14208,11 +14237,11 @@
       </c>
       <c r="E192" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F192" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -14230,11 +14259,11 @@
       </c>
       <c r="E193" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F193" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -14252,11 +14281,11 @@
       </c>
       <c r="E194" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F194" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -14274,11 +14303,11 @@
       </c>
       <c r="E195" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F195" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -14296,7 +14325,7 @@
       </c>
       <c r="E196" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F196" s="2">
         <f t="shared" ca="1" si="35"/>
@@ -14318,11 +14347,11 @@
       </c>
       <c r="E197" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F197" s="2">
         <f t="shared" ca="1" si="35"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -14362,7 +14391,7 @@
       </c>
       <c r="E199">
         <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -14380,7 +14409,7 @@
       </c>
       <c r="E200">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -14438,7 +14467,7 @@
       </c>
       <c r="E203">
         <f t="shared" ca="1" si="33"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -14456,7 +14485,7 @@
       </c>
       <c r="E204">
         <f t="shared" ca="1" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -14474,7 +14503,7 @@
       </c>
       <c r="E205" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F205" s="2">
         <f t="shared" ref="F205" ca="1" si="37">RANDBETWEEN(1,3)</f>
@@ -14496,7 +14525,7 @@
       </c>
       <c r="E206">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
@@ -14514,7 +14543,7 @@
       </c>
       <c r="E207" s="2">
         <f t="shared" ca="1" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F207" s="2"/>
     </row>
@@ -14533,7 +14562,7 @@
       </c>
       <c r="E208">
         <f t="shared" ca="1" si="33"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
@@ -14551,7 +14580,7 @@
       </c>
       <c r="E209">
         <f t="shared" ca="1" si="33"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
@@ -14567,7 +14596,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1">
         <f t="shared" ca="1" si="33"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" s="3">
         <v>8</v>
@@ -14606,7 +14635,7 @@
       </c>
       <c r="E212">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
@@ -14624,7 +14653,7 @@
       </c>
       <c r="E213" s="2">
         <f t="shared" ref="E213:E241" ca="1" si="38">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F213" s="2">
         <f t="shared" ref="F213:F214" ca="1" si="39">RANDBETWEEN(1,3)</f>
@@ -14646,7 +14675,7 @@
       </c>
       <c r="E214" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F214" s="2">
         <f t="shared" ca="1" si="39"/>
@@ -14668,7 +14697,7 @@
       </c>
       <c r="E215">
         <f t="shared" ca="1" si="38"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
@@ -14704,7 +14733,7 @@
       </c>
       <c r="E217">
         <f t="shared" ca="1" si="38"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
@@ -14722,7 +14751,7 @@
       </c>
       <c r="E218">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
@@ -14740,11 +14769,11 @@
       </c>
       <c r="E219" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F219" s="2">
         <f t="shared" ref="F219" ca="1" si="40">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
@@ -14762,7 +14791,7 @@
       </c>
       <c r="E220">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
@@ -14780,7 +14809,7 @@
       </c>
       <c r="E221">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
@@ -14798,11 +14827,11 @@
       </c>
       <c r="E222" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F222" s="2">
         <f t="shared" ref="F222" ca="1" si="41">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
@@ -14820,7 +14849,7 @@
       </c>
       <c r="E223">
         <f t="shared" ca="1" si="38"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
@@ -14838,7 +14867,7 @@
       </c>
       <c r="E224" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F224" s="2">
         <f t="shared" ref="F224:F228" ca="1" si="42">RANDBETWEEN(1,3)</f>
@@ -14860,11 +14889,11 @@
       </c>
       <c r="E225" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F225" s="2">
         <f t="shared" ca="1" si="42"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -14882,11 +14911,11 @@
       </c>
       <c r="E226" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F226" s="2">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -14904,11 +14933,11 @@
       </c>
       <c r="E227" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F227" s="2">
         <f t="shared" ca="1" si="42"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -14930,7 +14959,7 @@
       </c>
       <c r="F228" s="2">
         <f t="shared" ca="1" si="42"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
@@ -14948,7 +14977,7 @@
       </c>
       <c r="E229">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -14984,7 +15013,7 @@
       </c>
       <c r="E231" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F231" s="2">
         <f t="shared" ref="F231:F233" ca="1" si="43">RANDBETWEEN(1,3)</f>
@@ -15006,11 +15035,11 @@
       </c>
       <c r="E232" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F232" s="2">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -15032,7 +15061,7 @@
       </c>
       <c r="F233" s="2">
         <f t="shared" ca="1" si="43"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -15050,7 +15079,7 @@
       </c>
       <c r="E234">
         <f t="shared" ca="1" si="38"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -15068,7 +15097,7 @@
       </c>
       <c r="E235">
         <f t="shared" ca="1" si="38"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -15086,7 +15115,7 @@
       </c>
       <c r="E236">
         <f t="shared" ca="1" si="38"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -15104,7 +15133,7 @@
       </c>
       <c r="E237">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -15122,11 +15151,11 @@
       </c>
       <c r="E238" s="2">
         <f t="shared" ca="1" si="38"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F238" s="2">
         <f t="shared" ref="F238" ca="1" si="44">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -15162,7 +15191,7 @@
       </c>
       <c r="E240">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
@@ -15178,7 +15207,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1">
         <f t="shared" ca="1" si="38"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H241" s="3">
         <v>9</v>
@@ -15221,7 +15250,7 @@
       </c>
       <c r="E243" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F243" s="2">
         <f t="shared" ca="1" si="45"/>
@@ -15261,7 +15290,7 @@
       </c>
       <c r="E245">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
@@ -15279,7 +15308,7 @@
       </c>
       <c r="E246">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
@@ -15301,7 +15330,7 @@
       </c>
       <c r="F247" s="2">
         <f t="shared" ref="F247" ca="1" si="47">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
@@ -15319,7 +15348,7 @@
       </c>
       <c r="E248">
         <f t="shared" ca="1" si="46"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
@@ -15337,11 +15366,11 @@
       </c>
       <c r="E249" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F249" s="2">
         <f t="shared" ref="F249" ca="1" si="48">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
@@ -15359,7 +15388,7 @@
       </c>
       <c r="E250">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
@@ -15377,11 +15406,11 @@
       </c>
       <c r="E251" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F251" s="2">
         <f t="shared" ref="F251" ca="1" si="49">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
@@ -15399,7 +15428,7 @@
       </c>
       <c r="E252">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
@@ -15417,7 +15446,7 @@
       </c>
       <c r="E253" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F253" s="2">
         <f t="shared" ref="F253" ca="1" si="50">RANDBETWEEN(1,3)</f>
@@ -15439,7 +15468,7 @@
       </c>
       <c r="E254">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
@@ -15457,7 +15486,7 @@
       </c>
       <c r="E255">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -15475,11 +15504,11 @@
       </c>
       <c r="E256" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F256" s="2">
         <f t="shared" ref="F256" ca="1" si="51">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -15497,7 +15526,7 @@
       </c>
       <c r="E257">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -15515,11 +15544,11 @@
       </c>
       <c r="E258" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F258" s="2">
         <f t="shared" ref="F258" ca="1" si="52">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
@@ -15537,7 +15566,7 @@
       </c>
       <c r="E259">
         <f t="shared" ca="1" si="46"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
@@ -15555,7 +15584,7 @@
       </c>
       <c r="E260" s="2">
         <f t="shared" ca="1" si="46"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F260" s="2">
         <f t="shared" ref="F260" ca="1" si="53">RANDBETWEEN(1,3)</f>
@@ -15577,7 +15606,7 @@
       </c>
       <c r="E261">
         <f t="shared" ca="1" si="46"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
@@ -15593,7 +15622,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1">
         <f t="shared" ca="1" si="46"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H262" s="3">
         <v>10</v>
@@ -15615,7 +15644,7 @@
       </c>
       <c r="F263" s="2">
         <f t="shared" ref="F263:F264" ca="1" si="54">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H263" s="3">
         <v>11</v>
@@ -15636,7 +15665,7 @@
       </c>
       <c r="E264" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F264" s="2">
         <f t="shared" ca="1" si="54"/>
@@ -15658,7 +15687,7 @@
       </c>
       <c r="E265">
         <f t="shared" ref="E265:E274" ca="1" si="55">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
@@ -15676,11 +15705,11 @@
       </c>
       <c r="E266" s="2">
         <f t="shared" ca="1" si="55"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F266" s="2">
         <f t="shared" ref="F266:F267" ca="1" si="56">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
@@ -15698,11 +15727,11 @@
       </c>
       <c r="E267" s="2">
         <f t="shared" ca="1" si="55"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F267" s="2">
         <f t="shared" ca="1" si="56"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
@@ -15720,7 +15749,7 @@
       </c>
       <c r="E268">
         <f t="shared" ca="1" si="55"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
@@ -15760,7 +15789,7 @@
       </c>
       <c r="E270">
         <f t="shared" ca="1" si="55"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
@@ -15778,7 +15807,7 @@
       </c>
       <c r="E271">
         <f t="shared" ca="1" si="55"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
@@ -15796,11 +15825,11 @@
       </c>
       <c r="E272" s="2">
         <f t="shared" ca="1" si="55"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F272" s="2">
         <f t="shared" ref="F272" ca="1" si="58">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
@@ -15877,7 +15906,7 @@
       </c>
       <c r="E276">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
@@ -15917,7 +15946,7 @@
       </c>
       <c r="E278">
         <f t="shared" ca="1" si="60"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
@@ -15935,7 +15964,7 @@
       </c>
       <c r="E279">
         <f t="shared" ca="1" si="60"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
@@ -15953,7 +15982,7 @@
       </c>
       <c r="E280">
         <f t="shared" ca="1" si="60"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
@@ -15971,11 +16000,11 @@
       </c>
       <c r="E281" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F281" s="2">
         <f t="shared" ref="F281" ca="1" si="62">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
@@ -15993,7 +16022,7 @@
       </c>
       <c r="E282">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
@@ -16029,7 +16058,7 @@
       </c>
       <c r="E284">
         <f t="shared" ca="1" si="60"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
@@ -16047,7 +16076,7 @@
       </c>
       <c r="E285" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F285" s="2">
         <f t="shared" ref="F285:F287" ca="1" si="63">RANDBETWEEN(1,3)</f>
@@ -16073,7 +16102,7 @@
       </c>
       <c r="F286" s="2">
         <f t="shared" ca="1" si="63"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
@@ -16091,11 +16120,11 @@
       </c>
       <c r="E287" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F287" s="2">
         <f t="shared" ca="1" si="63"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
@@ -16131,7 +16160,7 @@
       </c>
       <c r="E289">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
@@ -16149,7 +16178,7 @@
       </c>
       <c r="E290">
         <f t="shared" ca="1" si="60"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
@@ -16167,11 +16196,11 @@
       </c>
       <c r="E291" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F291" s="2">
         <f t="shared" ref="F291" ca="1" si="64">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
@@ -16189,7 +16218,7 @@
       </c>
       <c r="E292">
         <f t="shared" ca="1" si="60"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
@@ -16207,7 +16236,7 @@
       </c>
       <c r="E293">
         <f t="shared" ca="1" si="60"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
@@ -16225,11 +16254,11 @@
       </c>
       <c r="E294" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F294" s="2">
         <f t="shared" ref="F294" ca="1" si="65">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
@@ -16247,7 +16276,7 @@
       </c>
       <c r="E295">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
@@ -16265,7 +16294,7 @@
       </c>
       <c r="E296" s="2">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F296" s="2">
         <f t="shared" ref="F296" ca="1" si="66">RANDBETWEEN(1,3)</f>
@@ -16287,7 +16316,7 @@
       </c>
       <c r="E297">
         <f t="shared" ca="1" si="60"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
@@ -16305,7 +16334,7 @@
       </c>
       <c r="E298">
         <f t="shared" ca="1" si="60"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
@@ -16323,7 +16352,7 @@
       </c>
       <c r="E299">
         <f t="shared" ca="1" si="60"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
@@ -16378,7 +16407,7 @@
       </c>
       <c r="E302">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
@@ -16396,7 +16425,7 @@
       </c>
       <c r="E303">
         <f t="shared" ref="E303:E320" ca="1" si="67">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
@@ -16414,7 +16443,7 @@
       </c>
       <c r="E304">
         <f t="shared" ca="1" si="67"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
@@ -16432,11 +16461,11 @@
       </c>
       <c r="E305" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F305" s="2">
         <f t="shared" ref="F305:F306" ca="1" si="68">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
@@ -16454,11 +16483,11 @@
       </c>
       <c r="E306" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F306" s="2">
         <f t="shared" ca="1" si="68"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
@@ -16476,7 +16505,7 @@
       </c>
       <c r="E307">
         <f t="shared" ca="1" si="67"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
@@ -16494,7 +16523,7 @@
       </c>
       <c r="E308">
         <f t="shared" ca="1" si="67"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
@@ -16512,11 +16541,11 @@
       </c>
       <c r="E309" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F309" s="2">
         <f t="shared" ref="F309:F314" ca="1" si="69">RANDBETWEEN(1,3)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
@@ -16534,11 +16563,11 @@
       </c>
       <c r="E310" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F310" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
@@ -16556,11 +16585,11 @@
       </c>
       <c r="E311" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F311" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
@@ -16578,11 +16607,11 @@
       </c>
       <c r="E312" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F312" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
@@ -16618,11 +16647,11 @@
       </c>
       <c r="E314" s="2">
         <f t="shared" ca="1" si="67"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F314" s="2">
         <f t="shared" ca="1" si="69"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
@@ -16640,7 +16669,7 @@
       </c>
       <c r="E315">
         <f t="shared" ca="1" si="67"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.3">
@@ -16658,7 +16687,7 @@
       </c>
       <c r="E316">
         <f t="shared" ca="1" si="67"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.3">
@@ -16674,7 +16703,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1">
         <f t="shared" ca="1" si="67"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.3">
@@ -16692,7 +16721,7 @@
       </c>
       <c r="E318">
         <f t="shared" ca="1" si="67"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.3">
@@ -16710,7 +16739,7 @@
       </c>
       <c r="E319">
         <f t="shared" ca="1" si="67"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.3">
@@ -16726,11 +16755,11 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1">
         <f t="shared" ca="1" si="67"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F320" s="2">
         <f t="shared" ref="F320:F321" ca="1" si="70">RANDBETWEEN(1,3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H320" s="3">
         <v>13</v>
@@ -16754,7 +16783,7 @@
       </c>
       <c r="F321" s="2">
         <f t="shared" ca="1" si="70"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" s="3">
         <v>14</v>
@@ -16775,7 +16804,7 @@
       </c>
       <c r="E322">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.3">
@@ -16793,11 +16822,11 @@
       </c>
       <c r="E323" s="2">
         <f t="shared" ref="E323:E333" ca="1" si="71">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F323" s="2">
         <f t="shared" ref="F323:F328" ca="1" si="72">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.3">
@@ -16815,11 +16844,11 @@
       </c>
       <c r="E324" s="2">
         <f t="shared" ca="1" si="71"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F324" s="2">
         <f t="shared" ca="1" si="72"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.3">
@@ -16841,7 +16870,7 @@
       </c>
       <c r="F325" s="2">
         <f t="shared" ca="1" si="72"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.3">
@@ -16859,7 +16888,7 @@
       </c>
       <c r="E326" s="2">
         <f t="shared" ca="1" si="71"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F326" s="2">
         <f t="shared" ca="1" si="72"/>
@@ -16881,11 +16910,11 @@
       </c>
       <c r="E327" s="2">
         <f t="shared" ca="1" si="71"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F327" s="2">
         <f t="shared" ca="1" si="72"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.3">
@@ -16903,11 +16932,11 @@
       </c>
       <c r="E328" s="2">
         <f t="shared" ca="1" si="71"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F328" s="2">
         <f t="shared" ca="1" si="72"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.3">
@@ -16999,7 +17028,7 @@
       </c>
       <c r="F333" s="2">
         <f t="shared" ref="F333" ca="1" si="73">RANDBETWEEN(1,3)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H333" s="3">
         <v>14</v>
